--- a/seed/data_importer/tests/data/example-data-properties.xlsx
+++ b/seed/data_importer/tests/data/example-data-properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llin/Documents/repo/seed/seed/data_importer/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlong/working/seed/seed/seed/data_importer/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746E511-3283-A645-B127-F36CD2F76423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DF6942-A42D-AF43-82C6-ED742172C904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39540" yWindow="960" windowWidth="28800" windowHeight="16440" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>521 Elm Street</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>86HJX838+8M7-1-3-1-2</t>
+  </si>
+  <si>
+    <t>property timezone</t>
+  </si>
+  <si>
+    <t>US/Mountain</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,14 +1070,15 @@
     <col min="17" max="17" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.1640625" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="8.83203125" style="12"/>
-    <col min="21" max="21" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="12"/>
+    <col min="21" max="21" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>95</v>
       </c>
@@ -1132,23 +1139,26 @@
       <c r="T1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1204,23 +1214,26 @@
       <c r="T2" s="5">
         <v>-105.22110000000001</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="25">
+      <c r="W2" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W2" s="25">
+      <c r="X2" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Z2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>4</v>
       </c>
@@ -1276,23 +1289,26 @@
       <c r="T3" s="5">
         <v>-105.225381</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W3" s="25">
+      <c r="X3" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Z3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
         <v>6</v>
       </c>
@@ -1350,21 +1366,24 @@
       <c r="T4" s="5">
         <v>-105.17121</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25">
+      <c r="U4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W4" s="25">
+      <c r="X4" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Z4" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>7</v>
       </c>
@@ -1422,23 +1441,26 @@
       <c r="T5" s="5">
         <v>-105.159808</v>
       </c>
-      <c r="U5" s="24">
+      <c r="U5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V5" s="25">
+      <c r="W5" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W5" s="25">
+      <c r="X5" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Z5" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>11</v>
       </c>
@@ -1496,23 +1518,26 @@
       <c r="T6" s="5">
         <v>-105.162576</v>
       </c>
-      <c r="U6" s="24">
+      <c r="U6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V6" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V6" s="25">
+      <c r="W6" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W6" s="25">
+      <c r="X6" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Z6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>8</v>
@@ -1571,23 +1596,26 @@
       <c r="T7" s="12">
         <v>-104.984951</v>
       </c>
-      <c r="U7" s="24">
+      <c r="U7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V7" s="25">
+      <c r="W7" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W7" s="25">
+      <c r="X7" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Z7" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>9</v>
@@ -1646,23 +1674,26 @@
       <c r="T8" s="12">
         <v>-104.96074299999999</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V8" s="25">
+      <c r="W8" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W8" s="25">
+      <c r="X8" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Y8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Z8" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>12</v>
@@ -1721,23 +1752,26 @@
       <c r="T9" s="12">
         <v>-104.975129</v>
       </c>
-      <c r="U9" s="24">
+      <c r="U9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V9" s="25">
+      <c r="W9" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W9" s="25">
+      <c r="X9" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="Y9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Z9" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>2</v>
@@ -1794,23 +1828,26 @@
       <c r="T10" s="12">
         <v>-104.996673</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V10" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V10" s="25">
+      <c r="W10" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W10" s="25">
+      <c r="X10" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Z10" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5">
         <v>3</v>
@@ -1867,23 +1904,26 @@
       <c r="T11" s="12">
         <v>-105.270546</v>
       </c>
-      <c r="U11" s="24">
+      <c r="U11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V11" s="25">
+      <c r="W11" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W11" s="25">
+      <c r="X11" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="Y11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Z11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5">
         <v>5</v>
@@ -1940,23 +1980,26 @@
       <c r="T12" s="12">
         <v>-105.26486800000001</v>
       </c>
-      <c r="U12" s="24">
+      <c r="U12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V12" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V12" s="25">
+      <c r="W12" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W12" s="25">
+      <c r="X12" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X12" s="9" t="s">
+      <c r="Y12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Z12" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -2011,23 +2054,26 @@
       <c r="T13" s="12">
         <v>-105.26242000000001</v>
       </c>
-      <c r="U13" s="24">
+      <c r="U13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V13" s="25">
+      <c r="W13" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W13" s="25">
+      <c r="X13" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="Y13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Z13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17">
         <v>13</v>
@@ -2084,23 +2130,26 @@
       <c r="T14" s="12">
         <v>-105.02010900000001</v>
       </c>
-      <c r="U14" s="24">
+      <c r="U14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V14" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V14" s="25">
+      <c r="W14" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W14" s="25">
+      <c r="X14" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="Y14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Z14" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="17">
         <v>13</v>
@@ -2157,23 +2206,26 @@
       <c r="T15" s="12">
         <v>-105.007644</v>
       </c>
-      <c r="U15" s="24">
+      <c r="U15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="24">
         <v>42740.333333333336</v>
       </c>
-      <c r="V15" s="25">
+      <c r="W15" s="25">
         <v>42891.739583333336</v>
       </c>
-      <c r="W15" s="25">
+      <c r="X15" s="25">
         <v>42987.961805555555</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="Y15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Z15" s="17">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E16"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.2">
@@ -2205,7 +2257,7 @@
       <c r="I23" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W13">
     <sortCondition ref="B2:B13"/>
   </sortState>
   <conditionalFormatting sqref="C2:D2 C9 C11 C5:D6 C7 F2:F13">
